--- a/examsoffice/static/excel_templates/transcript_template.xlsx
+++ b/examsoffice/static/excel_templates/transcript_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mebi Nwobi\Documents\exams office app suite\examsoffice\examsoffice\static\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0AA336-E6D1-41C6-B6D4-1BC7FBAAA238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D949F65-484A-4507-BD38-2D706A3C2111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{47A421DA-B6D1-43F0-8717-18ED105AAC00}"/>
   </bookViews>
@@ -33,25 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>S/N</t>
-  </si>
-  <si>
-    <t>Course Code</t>
-  </si>
-  <si>
-    <t>Course Title</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Grade Point</t>
-  </si>
-  <si>
-    <t>Unit Load</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>UNIVERSITY OF NIGERIA, NSUKKA</t>
   </si>
@@ -69,27 +51,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri (detail)"/>
     </font>
     <font>
       <sz val="20"/>
@@ -130,7 +98,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -138,48 +106,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,347 +502,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCCADB2-0235-45AF-869A-F74DA5D4F347}">
-  <dimension ref="A1:BN14"/>
+  <dimension ref="A1:BN13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:BE5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="1.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:66" ht="12" customHeight="1">
-      <c r="J1" s="5" t="s">
-        <v>6</v>
+    <row r="1" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>0</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
     </row>
-    <row r="2" spans="1:66" ht="14.25" customHeight="1">
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
+    <row r="2" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
     </row>
-    <row r="3" spans="1:66" ht="18.75" customHeight="1">
-      <c r="J3" s="6" t="s">
-        <v>7</v>
+    <row r="3" spans="1:66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="4" t="s">
+        <v>1</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="6"/>
-      <c r="AY3" s="6"/>
-      <c r="AZ3" s="6"/>
-      <c r="BA3" s="6"/>
-      <c r="BB3" s="6"/>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
-      <c r="BE3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
     </row>
-    <row r="4" spans="1:66" ht="19.5">
-      <c r="J4" s="7" t="s">
-        <v>8</v>
+    <row r="4" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="J4" s="5" t="s">
+        <v>2</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="7"/>
-      <c r="BC4" s="7"/>
-      <c r="BD4" s="7"/>
-      <c r="BE4" s="7"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
     </row>
-    <row r="5" spans="1:66" ht="19.5" customHeight="1">
-      <c r="J5" s="8" t="s">
-        <v>9</v>
+    <row r="5" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="2" t="s">
+        <v>3</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
     </row>
-    <row r="6" spans="1:66" ht="1.5" customHeight="1"/>
-    <row r="7" spans="1:66" ht="7.5" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2"/>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
-      <c r="BF7" s="2"/>
-      <c r="BG7" s="2"/>
-      <c r="BH7" s="2"/>
-      <c r="BI7" s="2"/>
-      <c r="BJ7" s="2"/>
-      <c r="BK7" s="2"/>
-      <c r="BL7" s="2"/>
-      <c r="BM7" s="2"/>
-      <c r="BN7" s="2"/>
+    <row r="6" spans="1:66" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:66" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
+      <c r="BL7" s="6"/>
+      <c r="BM7" s="6"/>
+      <c r="BN7" s="6"/>
     </row>
-    <row r="8" spans="1:66" ht="22.5" customHeight="1"/>
-    <row r="9" spans="1:66" ht="22.5" customHeight="1"/>
-    <row r="10" spans="1:66" ht="22.5" customHeight="1"/>
-    <row r="11" spans="1:66" ht="22.5" customHeight="1"/>
-    <row r="12" spans="1:66" ht="22.5" customHeight="1"/>
-    <row r="13" spans="1:66">
+    <row r="8" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -958,94 +905,13 @@
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
     </row>
-    <row r="14" spans="1:66" ht="17.25" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="4"/>
-      <c r="BB14" s="4"/>
-      <c r="BC14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD14" s="4"/>
-      <c r="BE14" s="4"/>
-      <c r="BF14" s="4"/>
-      <c r="BG14" s="4"/>
-      <c r="BH14" s="4"/>
-      <c r="BI14" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="5">
     <mergeCell ref="J5:BE5"/>
     <mergeCell ref="J1:BE2"/>
     <mergeCell ref="J3:BE3"/>
     <mergeCell ref="J4:BE4"/>
     <mergeCell ref="A7:BN7"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="N14:AJ14"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AU14:BB14"/>
-    <mergeCell ref="BC14:BI14"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1059,7 +925,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
